--- a/parabolic/2025/07/25/parabolic.xlsx
+++ b/parabolic/2025/07/25/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>727.4000244140625</v>
+        <v>728.2999877929688</v>
       </c>
       <c r="D2" t="n">
-        <v>526700</v>
+        <v>1013100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>4996</t>
+          <t>4574</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>813</v>
+        <v>289</v>
       </c>
       <c r="D3" t="n">
-        <v>100700</v>
+        <v>162900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>5244</t>
+          <t>4882</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>267</v>
+        <v>413</v>
       </c>
       <c r="D4" t="n">
-        <v>115700</v>
+        <v>164300</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6535</t>
+          <t>4996</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>653</v>
+        <v>815</v>
       </c>
       <c r="D5" t="n">
-        <v>184900</v>
+        <v>147100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>9553</t>
+          <t>5244</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,16 +574,85 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>525</v>
+        <v>265</v>
       </c>
       <c r="D6" t="n">
-        <v>134400</v>
+        <v>136800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>5845</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>844</v>
+      </c>
+      <c r="D7" t="n">
+        <v>104300</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>6535</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>652</v>
+      </c>
+      <c r="D8" t="n">
+        <v>336700</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>9553</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>519</v>
+      </c>
+      <c r="D9" t="n">
+        <v>212200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/25/parabolic.xlsx
+++ b/parabolic/2025/07/25/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>728.2999877929688</v>
+        <v>723.0999755859375</v>
       </c>
       <c r="D2" t="n">
-        <v>1013100</v>
+        <v>1390500</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>4574</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="D3" t="n">
-        <v>162900</v>
+        <v>202600</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4882</t>
+          <t>4013</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>413</v>
+        <v>958</v>
       </c>
       <c r="D4" t="n">
-        <v>164300</v>
+        <v>1132100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4996</t>
+          <t>4574</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>815</v>
+        <v>289</v>
       </c>
       <c r="D5" t="n">
-        <v>147100</v>
+        <v>244200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5244</t>
+          <t>4882</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="D6" t="n">
-        <v>136800</v>
+        <v>307200</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5845</t>
+          <t>4996</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>844</v>
+        <v>813</v>
       </c>
       <c r="D7" t="n">
-        <v>104300</v>
+        <v>192200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6535</t>
+          <t>5244</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>652</v>
+        <v>265</v>
       </c>
       <c r="D8" t="n">
-        <v>336700</v>
+        <v>163100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>9553</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,16 +643,131 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>519</v>
+        <v>837</v>
       </c>
       <c r="D9" t="n">
-        <v>212200</v>
+        <v>140500</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>6523</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>918</v>
+      </c>
+      <c r="D10" t="n">
+        <v>107300</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>6535</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>651</v>
+      </c>
+      <c r="D11" t="n">
+        <v>488000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>8103</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>714</v>
+      </c>
+      <c r="D12" t="n">
+        <v>104900</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>8226</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>365</v>
+      </c>
+      <c r="D13" t="n">
+        <v>249300</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>9553</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>519</v>
+      </c>
+      <c r="D14" t="n">
+        <v>341000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/25/parabolic.xlsx
+++ b/parabolic/2025/07/25/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>723.0999755859375</v>
+        <v>719.2999877929688</v>
       </c>
       <c r="D2" t="n">
-        <v>1390500</v>
+        <v>2434800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3911</t>
+          <t>2461</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>244</v>
+        <v>476</v>
       </c>
       <c r="D3" t="n">
-        <v>202600</v>
+        <v>109200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4013</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>958</v>
+        <v>243</v>
       </c>
       <c r="D4" t="n">
-        <v>1132100</v>
+        <v>286000</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4574</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>289</v>
+        <v>447</v>
       </c>
       <c r="D5" t="n">
-        <v>244200</v>
+        <v>117000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4882</t>
+          <t>4013</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>421</v>
+        <v>973</v>
       </c>
       <c r="D6" t="n">
-        <v>307200</v>
+        <v>1827100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4996</t>
+          <t>4574</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>813</v>
+        <v>291</v>
       </c>
       <c r="D7" t="n">
-        <v>192200</v>
+        <v>309200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5244</t>
+          <t>4745</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>265</v>
+        <v>363</v>
       </c>
       <c r="D8" t="n">
-        <v>163100</v>
+        <v>121500</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>5845</t>
+          <t>4882</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>837</v>
+        <v>423</v>
       </c>
       <c r="D9" t="n">
-        <v>140500</v>
+        <v>416000</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6523</t>
+          <t>4996</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>918</v>
+        <v>812</v>
       </c>
       <c r="D10" t="n">
-        <v>107300</v>
+        <v>270200</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6535</t>
+          <t>5244</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>651</v>
+        <v>265</v>
       </c>
       <c r="D11" t="n">
-        <v>488000</v>
+        <v>176100</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>8103</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>714</v>
+        <v>844</v>
       </c>
       <c r="D12" t="n">
-        <v>104900</v>
+        <v>165800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>8226</t>
+          <t>6523</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>365</v>
+        <v>919</v>
       </c>
       <c r="D13" t="n">
-        <v>249300</v>
+        <v>147200</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>9553</t>
+          <t>6535</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,16 +758,108 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>519</v>
+        <v>653</v>
       </c>
       <c r="D14" t="n">
-        <v>341000</v>
+        <v>617600</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>7803</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>682</v>
+      </c>
+      <c r="D15" t="n">
+        <v>240500</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8103</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>712</v>
+      </c>
+      <c r="D16" t="n">
+        <v>116200</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>8226</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>362</v>
+      </c>
+      <c r="D17" t="n">
+        <v>293300</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>9553</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>518</v>
+      </c>
+      <c r="D18" t="n">
+        <v>401500</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
